--- a/spike sorting/testing recovery of population mean.xlsx
+++ b/spike sorting/testing recovery of population mean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpv88\OneDrive\Documents\GitHub\Economo\spike sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5DEAC-A9B4-4C0F-A504-796BE04E10D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB2E17-1E43-4862-B44C-753D1E24AC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4176" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>predicted average</t>
   </si>
   <si>
     <t>real average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicted average </t>
+  </si>
+  <si>
+    <t>predicted median</t>
+  </si>
+  <si>
+    <t>true median</t>
   </si>
 </sst>
 </file>
@@ -66,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,6 +616,670 @@
         <v>0.34834700000000002</v>
       </c>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3.2762776823822802E-2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.4487643731042999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.10758696112156001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.161662904288425</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.24767221242715601</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.26617390727815998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.28399742821562202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4.05474250797054E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.8299374977024199E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.103938087980532</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.17432068570801099</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.24275386500818</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25874538092978</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.281883438091106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>6.92457033463421E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.6636824047418201E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.123027017643998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.16729037009617501</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.2258035454997</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.26027907350517698</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.281855248768968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.12765489074379699</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.13866207558966001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.15498820488787701</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.19041940791182799</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.25963183903739701</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.27889851301011398</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.29052800292957698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.25078179508165499</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.25111907015641199</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.25790360393005501</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.26698977167756399</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.29853175839631202</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.32282880320019203</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.32099978855355799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.308186526236706</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.30347112210250998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.30921869596212798</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.30807938734329099</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.323359190969912</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.330083722036353</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.34357429365665898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.35181170128366002</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.35173870642382998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.33899253618479003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.34779929367037499</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.364110348943538</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.34822730357348702</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.34906748350357603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2.86429943246862E-2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4.7497494781446901E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.7278572032391902E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.15770273215354699</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.24498155374678501</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.27114313286230901</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.29772945855895699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>3.4435220968245903E-2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5.0228881752762897E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.5989506628628998E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.15757126337039101</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.240721682386555</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.26306724330334103</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.291821708874345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>5.87358330773406E-2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>7.0234761646465305E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.104062555811943</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.15976126666044199</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.242056910178684</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.27563580751951899</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.296714776480555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.106789802365628</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.11547936883448599</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.140081268251389</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.17891186861245101</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.25571099501322098</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.28484154124063299</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.307089457144751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.20412539076540601</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.20924941693802401</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.22389941662450899</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.24992520260450299</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.29763078491766298</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.333585319959255</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.34683929212231102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.25222586908141398</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.25557471663853198</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.26884019136526799</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.29011715081330602</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.331247793948867</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.34737922322887099</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.36795122494733001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.30240651743512997</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.30571292450955401</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.31459894978074099</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.330640036188039</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.36613579798096202</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.37865089210684599</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.38756423149538499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1.59015031350919E-2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.2372933218543601E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5.3124826628108399E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.107134388396831</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.20572777308936399</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.225008975751324</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.26663917267967502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2.1910411720969501E-2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.9464479390592501E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5.22069932054098E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.11581109142621</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.204043770173197</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.22148459661950701</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.250550753021551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>5.1061901763856402E-2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5.6519407770078897E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7.73275484591706E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.115092868008384</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.17344071963809199</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.236010192204168</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.26175596262117601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.11387054189434</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.12231262866268799</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.12582482639209799</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.151014574592581</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.23425859318740899</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.25856140406848299</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.264443843666957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.24072249667680601</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.243777908320811</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.24900629042091299</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.251313407206119</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.28150234670860802</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.32146640646414798</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.32710631988871403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.311767389123289</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.30640197824103299</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.30743034296585497</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.30884057995763298</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.33097008109207199</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.34258545142475999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.35141870798506603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.36327651830591101</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.36404683926242998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.35574001845742598</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.35681189789715601</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.37544456393994402</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.36210449536671802</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.34514377471872298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1.41657223525941E-2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.19720840076345E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.9208908062643303E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9.2833515178722195E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.17454149824104201</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.19692615787361101</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.23083435773300001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>2.2294010935817999E-2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.8088630485203499E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.1863517853490901E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.5127753435248805E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.16932811134595099</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.19459004601232999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.22391395327004801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>5.0644944170414902E-2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.3182559999910603E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6.9657555559276996E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.10295017466963299</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.173659219732334</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.208248101629709</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.23315964952985199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.100461718413506</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.10188011518665099</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.10999712247478501</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.13192840418028601</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.19325913889562399</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.22411631770976001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.24927858464351099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.20001674089866001</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.20082457117070199</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.20454570706015299</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.21643676398848399</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.25348635978749301</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.28797594628220802</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.29964520731265498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.249901000241881</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.250617680476726</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.25369453039404799</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.26169524887940399</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.29007546659474598</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.30925737846125501</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.32652620743562299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.29984773272396997</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.30052708037993697</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.302093633074763</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.30804195078504099</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.33548987753764897</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.346221460292443</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.35043486723564798</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
